--- a/src/main/webapp/office/d707d6a17c064e9aa6d13f13c42cca7b.xlsx
+++ b/src/main/webapp/office/d707d6a17c064e9aa6d13f13c42cca7b.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="196">
   <si>
     <t xml:space="preserve">概述：任何一个软件都被看作是由外部输入处理、外部输出处理、外部查询处理、内部逻辑文件和外部参照文件五种要素组成。
 </t>
@@ -278,10 +278,6 @@
   </si>
   <si>
     <t>低</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域站实况</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -2442,10 +2438,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>8</v>
@@ -2883,7 +2879,7 @@
   <dimension ref="A1:IE63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2912,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
@@ -2922,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3161,28 +3157,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>55</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1231231231</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3422,22 +3418,22 @@
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3677,16 +3673,16 @@
       <c r="B4" s="38"/>
       <c r="C4" s="42"/>
       <c r="D4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3927,22 +3923,22 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4183,19 +4179,19 @@
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4436,19 +4432,19 @@
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4689,19 +4685,19 @@
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4942,16 +4938,16 @@
       <c r="B9" s="38"/>
       <c r="C9" s="42"/>
       <c r="D9" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5192,19 +5188,19 @@
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5249,19 +5245,19 @@
       <c r="B11" s="38"/>
       <c r="C11" s="40"/>
       <c r="D11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5305,19 +5301,19 @@
       <c r="B12" s="38"/>
       <c r="C12" s="40"/>
       <c r="D12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5361,19 +5357,19 @@
       <c r="B13" s="38"/>
       <c r="C13" s="40"/>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5417,19 +5413,19 @@
       <c r="B14" s="38"/>
       <c r="C14" s="40"/>
       <c r="D14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5473,19 +5469,19 @@
       <c r="B15" s="38"/>
       <c r="C15" s="40"/>
       <c r="D15" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5529,19 +5525,19 @@
       <c r="B16" s="38"/>
       <c r="C16" s="40"/>
       <c r="D16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -5585,19 +5581,19 @@
       <c r="B17" s="38"/>
       <c r="C17" s="40"/>
       <c r="D17" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -5641,19 +5637,19 @@
       <c r="B18" s="38"/>
       <c r="C18" s="40"/>
       <c r="D18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5697,19 +5693,19 @@
       <c r="B19" s="38"/>
       <c r="C19" s="40"/>
       <c r="D19" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -5753,19 +5749,19 @@
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
       <c r="D20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -5808,22 +5804,22 @@
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5867,19 +5863,19 @@
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
       <c r="D22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -5923,19 +5919,19 @@
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
       <c r="D23" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -5979,19 +5975,19 @@
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
       <c r="D24" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -6034,22 +6030,22 @@
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -6093,16 +6089,16 @@
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -6147,16 +6143,16 @@
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="3"/>
@@ -6201,7 +6197,7 @@
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
       <c r="D28" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>53</v>
@@ -6210,7 +6206,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="3"/>
@@ -6254,19 +6250,19 @@
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6311,16 +6307,16 @@
       <c r="B30" s="38"/>
       <c r="C30" s="41"/>
       <c r="D30" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -6365,16 +6361,16 @@
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
       <c r="D31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6419,16 +6415,16 @@
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
       <c r="D32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="3"/>
@@ -6473,19 +6469,19 @@
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
       <c r="D33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6529,16 +6525,16 @@
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
       <c r="D34" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -6583,16 +6579,16 @@
       <c r="B35" s="38"/>
       <c r="C35" s="40"/>
       <c r="D35" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6637,16 +6633,16 @@
       <c r="B36" s="38"/>
       <c r="C36" s="40"/>
       <c r="D36" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -6691,16 +6687,16 @@
       <c r="B37" s="38"/>
       <c r="C37" s="40"/>
       <c r="D37" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="3"/>
@@ -6745,16 +6741,16 @@
       <c r="B38" s="38"/>
       <c r="C38" s="40"/>
       <c r="D38" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="3"/>
@@ -6799,16 +6795,16 @@
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
       <c r="D39" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6852,19 +6848,19 @@
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -6909,16 +6905,16 @@
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -6963,16 +6959,16 @@
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
       <c r="D42" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="3"/>
@@ -7017,16 +7013,16 @@
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="3"/>
@@ -7071,16 +7067,16 @@
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -7124,19 +7120,19 @@
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -7181,16 +7177,16 @@
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
       <c r="D46" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -7235,16 +7231,16 @@
       <c r="B47" s="38"/>
       <c r="C47" s="40"/>
       <c r="D47" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="3"/>
@@ -7288,19 +7284,19 @@
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="3"/>
@@ -7345,16 +7341,16 @@
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
       <c r="D49" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -7399,16 +7395,16 @@
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
       <c r="D50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -7453,16 +7449,16 @@
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
       <c r="D51" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -7507,16 +7503,16 @@
       <c r="B52" s="38"/>
       <c r="C52" s="39"/>
       <c r="D52" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="3"/>
@@ -7561,16 +7557,16 @@
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
       <c r="D53" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="3"/>
@@ -7615,16 +7611,16 @@
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
       <c r="D54" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -7669,16 +7665,16 @@
       <c r="B55" s="38"/>
       <c r="C55" s="39"/>
       <c r="D55" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -7723,16 +7719,16 @@
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
       <c r="D56" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -7777,16 +7773,16 @@
       <c r="B57" s="38"/>
       <c r="C57" s="39"/>
       <c r="D57" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="3"/>
@@ -7830,19 +7826,19 @@
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="E58" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="3"/>
@@ -7887,16 +7883,16 @@
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -7941,16 +7937,16 @@
       <c r="B60" s="38"/>
       <c r="C60" s="43"/>
       <c r="D60" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7994,19 +7990,19 @@
       </c>
       <c r="B61" s="38"/>
       <c r="C61" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="E61" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -8051,16 +8047,16 @@
       <c r="B62" s="38"/>
       <c r="C62" s="39"/>
       <c r="D62" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H62" s="28"/>
       <c r="I62" s="3"/>
@@ -8105,16 +8101,16 @@
       <c r="B63" s="42"/>
       <c r="C63" s="43"/>
       <c r="D63" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="3"/>
